--- a/biology/Histoire de la zoologie et de la botanique/Charles_Joseph_Devillers/Charles_Joseph_Devillers.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Joseph_Devillers/Charles_Joseph_Devillers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Joseph Devillers (ou de Villers) est un naturaliste français, né le 24 juillet 1724 à Rennes et mort le 3 janvier 1810[1] à Lyon (Rhône).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Joseph Devillers (ou de Villers) est un naturaliste français, né le 24 juillet 1724 à Rennes et mort le 3 janvier 1810 à Lyon (Rhône).
 Il est membre de l’Académie des sciences, belles-lettres et arts de Lyon de 1764 à 1810. Possesseur d’un riche cabinet de curiosités, il enseigne la physique et les mathématiques. Il fait paraître Caroli Linnaei entomologia en 1789 où il rassemble les descriptions entomologiques de Carl von Linné (1707-1778). Il fréquente les botanistes et naturalistes Philibert Commerson (1727-1773), Jean-Emmanuel Gilibert (1741-1814) et Marc Antoine Louis Claret de La Tourrette (1729-1793).
 </t>
         </is>
